--- a/data/trans_camb/iP12_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/iP12_R-Habitat-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,62</t>
+          <t>-3,68</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,72</t>
+          <t>5,16</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>-2,51</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,1</t>
+          <t>-9,5</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,61</t>
+          <t>-11,97</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>-14,42</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>-6,47</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>-2,93</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>-7,55</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 2,66</t>
+          <t>-16,84; 3,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 3,33</t>
+          <t>-7,47; 24,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 3,1</t>
+          <t>-13,18; 11,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 7,43</t>
+          <t>-30,91; 12,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 7,55</t>
+          <t>-31,03; 9,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 4,92</t>
+          <t>-34,77; 6,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 3,36</t>
+          <t>-17,42; 4,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 4,24</t>
+          <t>-16,39; 8,86</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 2,76</t>
+          <t>-18,32; 6,33</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-20,46%</t>
+          <t>-55,94%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-9,11%</t>
+          <t>78,49%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-14,27%</t>
+          <t>-38,15%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>50,0%</t>
+          <t>-38,9%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>58,33%</t>
+          <t>-49,04%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>14,06%</t>
+          <t>-59,05%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>9,02%</t>
+          <t>-43,17%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>19,1%</t>
+          <t>-19,52%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-2,59%</t>
+          <t>-50,35%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-56,04; 51,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-49,71; 55,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-49,65; 55,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-10,2; 189,69</t>
+          <t>-86,46; 107,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 183,7</t>
+          <t>-90,48; 127,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-42,76; 113,12</t>
+          <t>-100,0; 137,85</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-28,26; 56,67</t>
+          <t>-81,73; 78,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-19,65; 72,14</t>
+          <t>-76,91; 110,55</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-32,73; 49,07</t>
+          <t>-89,41; 119,1</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,08</t>
+          <t>-1,62</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>-0,72</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,24</t>
+          <t>-1,13</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,12</t>
+          <t>3,1</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,67</t>
+          <t>3,61</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,8</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>4,6</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,56</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>3,54</t>
+          <t>-0,18</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,86; 9,45</t>
+          <t>-5,73; 2,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 2,73</t>
+          <t>-4,74; 3,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,16; 8,75</t>
+          <t>-5,02; 3,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,3; 7,52</t>
+          <t>-0,73; 7,43</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 7,24</t>
+          <t>-0,42; 7,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 6,48</t>
+          <t>-3,46; 4,92</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,91; 7,42</t>
+          <t>-2,41; 3,36</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 4,11</t>
+          <t>-1,69; 4,24</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,79; 6,46</t>
+          <t>-2,84; 2,76</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>100,55%</t>
+          <t>-20,46%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-11,06%</t>
+          <t>-9,11%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>83,94%</t>
+          <t>-14,27%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>126,13%</t>
+          <t>50,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>112,11%</t>
+          <t>58,33%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>85,56%</t>
+          <t>14,06%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>110,62%</t>
+          <t>9,02%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>37,57%</t>
+          <t>19,1%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>85,06%</t>
+          <t>-2,59%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,58; 275,4</t>
+          <t>-56,04; 51,15</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-59,8; 87,01</t>
+          <t>-49,71; 55,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 259,31</t>
+          <t>-49,65; 55,72</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 391,41</t>
+          <t>-10,2; 189,69</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 418,56</t>
+          <t>-7,07; 183,7</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-21,32; 386,99</t>
+          <t>-42,76; 113,12</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>29,45; 238,33</t>
+          <t>-28,26; 56,67</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-18,88; 129,11</t>
+          <t>-19,65; 72,14</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>11,85; 199,82</t>
+          <t>-32,73; 49,07</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-3,68</t>
+          <t>5,34</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5,16</t>
+          <t>4,03</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-2,51</t>
+          <t>3,1</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-9,5</t>
+          <t>-3,15</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-11,97</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-14,42</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-6,47</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-2,93</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-7,55</t>
+          <t>1,37</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-16,84; 3,08</t>
+          <t>0,86; 10,38</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,47; 24,1</t>
+          <t>-0,49; 9,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-13,18; 11,89</t>
+          <t>-1,59; 8,41</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-30,91; 12,16</t>
+          <t>-8,07; 1,66</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-31,03; 9,28</t>
+          <t>-6,29; 3,56</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-34,77; 6,23</t>
+          <t>-5,92; 4,53</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-17,42; 4,11</t>
+          <t>-2,34; 4,49</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-16,39; 8,86</t>
+          <t>-2,13; 4,66</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-18,32; 6,33</t>
+          <t>-2,29; 5,02</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-55,94%</t>
+          <t>96,62%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>78,49%</t>
+          <t>72,93%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-38,15%</t>
+          <t>56,06%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-38,9%</t>
+          <t>-34,22%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-49,04%</t>
+          <t>-15,16%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-59,05%</t>
+          <t>-5,45%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-43,17%</t>
+          <t>17,2%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-19,52%</t>
+          <t>19,51%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-50,35%</t>
+          <t>18,83%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,15; 299,69</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,95; 241,7</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,09; 250,84</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-86,46; 107,39</t>
+          <t>-66,94; 26,05</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-90,48; 127,96</t>
+          <t>-51,93; 55,97</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 137,85</t>
+          <t>-47,68; 66,86</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-81,73; 78,92</t>
+          <t>-27,31; 76,94</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-76,91; 110,55</t>
+          <t>-22,61; 83,35</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-89,41; 119,1</t>
+          <t>-25,09; 86,47</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>5,34</t>
+          <t>5,08</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>4,03</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>3,1</t>
+          <t>4,24</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-3,15</t>
+          <t>4,12</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-1,4</t>
+          <t>3,67</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>2,8</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>4,6</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>1,37</t>
+          <t>3,54</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,86; 10,38</t>
+          <t>0,86; 9,45</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 9,03</t>
+          <t>-3,97; 2,73</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 8,41</t>
+          <t>0,16; 8,75</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-8,07; 1,66</t>
+          <t>0,3; 7,52</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-6,29; 3,56</t>
+          <t>-0,08; 7,24</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 4,53</t>
+          <t>-0,73; 6,48</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 4,49</t>
+          <t>1,91; 7,42</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 4,66</t>
+          <t>-0,89; 4,11</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 5,02</t>
+          <t>0,79; 6,46</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>96,62%</t>
+          <t>100,55%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>72,93%</t>
+          <t>-11,06%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>56,06%</t>
+          <t>83,94%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-34,22%</t>
+          <t>126,13%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-15,16%</t>
+          <t>112,11%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-5,45%</t>
+          <t>85,56%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>17,2%</t>
+          <t>110,62%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>19,51%</t>
+          <t>37,57%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>18,83%</t>
+          <t>85,06%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>9,15; 299,69</t>
+          <t>8,58; 275,4</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-12,95; 241,7</t>
+          <t>-59,8; 87,01</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-23,09; 250,84</t>
+          <t>-4,01; 259,31</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-66,94; 26,05</t>
+          <t>-5,4; 391,41</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-51,93; 55,97</t>
+          <t>-6,34; 418,56</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-47,68; 66,86</t>
+          <t>-21,32; 386,99</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-27,31; 76,94</t>
+          <t>29,45; 238,33</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-22,61; 83,35</t>
+          <t>-18,88; 129,11</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-25,09; 86,47</t>
+          <t>11,85; 199,82</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/iP12_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/iP12_R-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-16,84; 3,08</t>
+          <t>-16,62; 5,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,47; 24,1</t>
+          <t>-8,24; 22,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,18; 11,89</t>
+          <t>-13,26; 10,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-30,91; 12,16</t>
+          <t>-31,21; 11,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-31,03; 9,28</t>
+          <t>-32,44; 8,38</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-34,77; 6,23</t>
+          <t>-35,74; 6,64</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-17,42; 4,11</t>
+          <t>-18,44; 4,37</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-16,39; 8,86</t>
+          <t>-15,51; 10,38</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-18,32; 6,33</t>
+          <t>-19,26; 5,98</t>
         </is>
       </c>
     </row>
@@ -806,32 +806,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-86,46; 107,39</t>
+          <t>-85,38; 107,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-90,48; 127,96</t>
+          <t>-91,93; 114,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 137,85</t>
+          <t>-100,0; 177,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-81,73; 78,92</t>
+          <t>-85,39; 56,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-76,91; 110,55</t>
+          <t>-77,45; 144,8</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-89,41; 119,1</t>
+          <t>-90,16; 109,7</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,11; 4,79</t>
+          <t>-5,99; 5,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,46; -0,2</t>
+          <t>-9,66; -0,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 5,27</t>
+          <t>-6,39; 5,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,35; 12,82</t>
+          <t>0,7; 12,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 5,06</t>
+          <t>-5,95; 4,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 6,46</t>
+          <t>-3,92; 6,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 6,78</t>
+          <t>-1,39; 6,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 0,53</t>
+          <t>-5,67; 0,56</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 4,25</t>
+          <t>-3,39; 4,35</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-58,27; 97,57</t>
+          <t>-54,04; 105,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-85,85; 9,3</t>
+          <t>-87,38; 5,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-62,1; 106,28</t>
+          <t>-61,55; 101,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,78; 345,52</t>
+          <t>1,73; 352,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-63,38; 185,37</t>
+          <t>-68,53; 131,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-49,67; 175,97</t>
+          <t>-50,19; 193,65</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-17,04; 128,29</t>
+          <t>-15,86; 139,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-71,12; 11,73</t>
+          <t>-67,66; 14,1</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-40,76; 85,96</t>
+          <t>-40,67; 87,77</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 2,66</t>
+          <t>-6,08; 1,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 3,33</t>
+          <t>-4,86; 3,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 3,1</t>
+          <t>-5,21; 2,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 7,43</t>
+          <t>-1,02; 7,29</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 7,55</t>
+          <t>-0,58; 7,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 4,92</t>
+          <t>-3,16; 4,92</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 3,36</t>
+          <t>-2,42; 3,36</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 4,24</t>
+          <t>-1,56; 4,14</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 2,76</t>
+          <t>-3,14; 2,76</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-56,04; 51,15</t>
+          <t>-60,2; 33,05</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-49,71; 55,95</t>
+          <t>-48,38; 55,29</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-49,65; 55,72</t>
+          <t>-53,76; 41,4</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-10,2; 189,69</t>
+          <t>-16,37; 160,37</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 183,7</t>
+          <t>-9,42; 178,78</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-42,76; 113,12</t>
+          <t>-36,58; 126,33</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-28,26; 56,67</t>
+          <t>-29,02; 57,89</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-19,65; 72,14</t>
+          <t>-19,23; 73,03</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-32,73; 49,07</t>
+          <t>-36,58; 47,78</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,86; 10,38</t>
+          <t>0,76; 10,63</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 9,03</t>
+          <t>-0,43; 8,7</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 8,41</t>
+          <t>-1,49; 8,57</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,07; 1,66</t>
+          <t>-7,62; 1,5</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,29; 3,56</t>
+          <t>-6,82; 3,48</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 4,53</t>
+          <t>-5,56; 4,71</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 4,49</t>
+          <t>-2,16; 4,87</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 4,66</t>
+          <t>-2,0; 4,96</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 5,02</t>
+          <t>-2,13; 4,96</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>9,15; 299,69</t>
+          <t>2,45; 284,78</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-12,95; 241,7</t>
+          <t>-8,3; 258,89</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-23,09; 250,84</t>
+          <t>-26,8; 244,39</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-66,94; 26,05</t>
+          <t>-64,04; 25,51</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-51,93; 55,97</t>
+          <t>-56,19; 57,27</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-47,68; 66,86</t>
+          <t>-47,16; 69,86</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-27,31; 76,94</t>
+          <t>-25,56; 85,21</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-22,61; 83,35</t>
+          <t>-23,35; 90,16</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-25,09; 86,47</t>
+          <t>-25,15; 89,88</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,86; 9,45</t>
+          <t>1,0; 9,83</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 2,73</t>
+          <t>-3,77; 2,95</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,16; 8,75</t>
+          <t>0,2; 9,35</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,3; 7,52</t>
+          <t>0,4; 7,96</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 7,24</t>
+          <t>0,06; 7,65</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 6,48</t>
+          <t>-0,74; 6,78</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,91; 7,42</t>
+          <t>1,91; 7,51</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 4,11</t>
+          <t>-0,86; 4,03</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,79; 6,46</t>
+          <t>0,73; 6,44</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>8,58; 275,4</t>
+          <t>6,0; 264,69</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-59,8; 87,01</t>
+          <t>-58,85; 99,95</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 259,31</t>
+          <t>-1,49; 258,4</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 391,41</t>
+          <t>-9,68; 415,93</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 418,56</t>
+          <t>-6,96; 441,7</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-21,32; 386,99</t>
+          <t>-20,01; 417,47</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>29,45; 238,33</t>
+          <t>29,64; 230,19</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-18,88; 129,11</t>
+          <t>-20,0; 127,19</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>11,85; 199,82</t>
+          <t>8,32; 201,25</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 4,17</t>
+          <t>-0,47; 4,28</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 1,97</t>
+          <t>-2,13; 1,95</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 3,66</t>
+          <t>-1,1; 3,48</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 4,46</t>
+          <t>-0,12; 4,52</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 3,77</t>
+          <t>-0,9; 3,77</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 3,41</t>
+          <t>-1,43; 3,01</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,61; 3,88</t>
+          <t>0,4; 3,75</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 2,3</t>
+          <t>-0,91; 2,17</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 2,74</t>
+          <t>-0,45; 2,61</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 71,89</t>
+          <t>-8,49; 75,07</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-28,71; 34,06</t>
+          <t>-27,57; 33,63</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-15,91; 64,56</t>
+          <t>-15,09; 59,23</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 80,85</t>
+          <t>-1,76; 84,32</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-11,39; 69,18</t>
+          <t>-12,48; 69,44</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-16,86; 64,74</t>
+          <t>-19,15; 57,8</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>7,62; 67,37</t>
+          <t>5,37; 64,18</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-13,13; 41,49</t>
+          <t>-12,59; 37,41</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 49,72</t>
+          <t>-6,25; 45,19</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/iP12_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/iP12_R-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-16,62; 5,69</t>
+          <t>-16,54; 5,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 22,59</t>
+          <t>-9,23; 22,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,26; 10,58</t>
+          <t>-15,03; 10,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-31,21; 11,96</t>
+          <t>-27,52; 12,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-32,44; 8,38</t>
+          <t>-29,9; 8,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-35,74; 6,64</t>
+          <t>-32,64; 7,03</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-18,44; 4,37</t>
+          <t>-18,5; 3,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-15,51; 10,38</t>
+          <t>-15,55; 11,24</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-19,26; 5,98</t>
+          <t>-20,16; 4,3</t>
         </is>
       </c>
     </row>
@@ -806,39 +806,39 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-85,38; 107,65</t>
+          <t>-86,06; 121,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-91,93; 114,62</t>
+          <t>-92,7; 94,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 177,19</t>
+          <t>-100,0; 107,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-85,39; 56,58</t>
+          <t>-88,01; 55,64</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-77,45; 144,8</t>
+          <t>-76,52; 169,86</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-90,16; 109,7</t>
+          <t>-100,0; 72,38</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 5,05</t>
+          <t>-6,37; 4,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,66; -0,26</t>
+          <t>-9,75; -0,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,39; 5,07</t>
+          <t>-6,35; 4,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,7; 12,57</t>
+          <t>0,07; 12,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 4,52</t>
+          <t>-5,35; 4,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 6,48</t>
+          <t>-3,78; 5,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 6,86</t>
+          <t>-1,2; 7,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 0,56</t>
+          <t>-6,02; 0,84</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 4,35</t>
+          <t>-3,81; 3,84</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-54,04; 105,33</t>
+          <t>-58,03; 82,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-87,38; 5,15</t>
+          <t>-86,02; 11,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-61,55; 101,29</t>
+          <t>-61,23; 82,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,73; 352,06</t>
+          <t>-6,14; 363,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-68,53; 131,01</t>
+          <t>-67,07; 145,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-50,19; 193,65</t>
+          <t>-46,67; 171,35</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-15,86; 139,56</t>
+          <t>-15,85; 137,63</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-67,66; 14,1</t>
+          <t>-67,68; 21,98</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-40,67; 87,77</t>
+          <t>-43,4; 78,12</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 1,85</t>
+          <t>-5,42; 2,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 3,09</t>
+          <t>-4,79; 3,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 2,47</t>
+          <t>-5,1; 2,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 7,29</t>
+          <t>-0,95; 7,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 7,85</t>
+          <t>-0,57; 8,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 4,92</t>
+          <t>-2,85; 5,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 3,36</t>
+          <t>-2,56; 3,44</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 4,14</t>
+          <t>-1,27; 4,38</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 2,76</t>
+          <t>-3,09; 2,56</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-60,2; 33,05</t>
+          <t>-54,22; 39,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-48,38; 55,29</t>
+          <t>-46,49; 58,54</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-53,76; 41,4</t>
+          <t>-51,46; 51,68</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-16,37; 160,37</t>
+          <t>-17,05; 161,17</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-9,42; 178,78</t>
+          <t>-8,43; 172,36</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-36,58; 126,33</t>
+          <t>-36,6; 104,81</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-29,02; 57,89</t>
+          <t>-29,61; 58,33</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-19,23; 73,03</t>
+          <t>-16,03; 76,64</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-36,58; 47,78</t>
+          <t>-35,4; 45,35</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,76; 10,63</t>
+          <t>0,54; 10,29</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 8,7</t>
+          <t>-1,08; 8,32</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 8,57</t>
+          <t>-1,41; 8,73</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,62; 1,5</t>
+          <t>-8,71; 1,43</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 3,48</t>
+          <t>-6,66; 3,41</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 4,71</t>
+          <t>-5,96; 4,62</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 4,87</t>
+          <t>-2,35; 4,42</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 4,96</t>
+          <t>-2,0; 4,84</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 4,96</t>
+          <t>-1,94; 5,22</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,45; 284,78</t>
+          <t>-1,15; 271,38</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-8,3; 258,89</t>
+          <t>-14,33; 230,94</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-26,8; 244,39</t>
+          <t>-23,13; 232,2</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-64,04; 25,51</t>
+          <t>-68,73; 25,13</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-56,19; 57,27</t>
+          <t>-54,51; 53,36</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-47,16; 69,86</t>
+          <t>-51,17; 67,27</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-25,56; 85,21</t>
+          <t>-27,41; 76,0</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-23,35; 90,16</t>
+          <t>-22,75; 85,06</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-25,15; 89,88</t>
+          <t>-22,73; 92,33</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,0; 9,83</t>
+          <t>1,08; 9,91</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 2,95</t>
+          <t>-3,9; 2,53</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,2; 9,35</t>
+          <t>0,12; 9,05</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,4; 7,96</t>
+          <t>0,52; 8,03</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,06; 7,65</t>
+          <t>0,2; 7,59</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 6,78</t>
+          <t>-0,43; 6,66</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,91; 7,51</t>
+          <t>1,99; 7,65</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 4,03</t>
+          <t>-0,93; 4,07</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,73; 6,44</t>
+          <t>0,79; 6,83</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>6,0; 264,69</t>
+          <t>10,44; 267,79</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-58,85; 99,95</t>
+          <t>-59,0; 81,82</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 258,4</t>
+          <t>-5,84; 258,88</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-9,68; 415,93</t>
+          <t>3,47; 398,54</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-6,96; 441,7</t>
+          <t>-4,95; 396,99</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-20,01; 417,47</t>
+          <t>-21,45; 356,24</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>29,64; 230,19</t>
+          <t>33,86; 251,54</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-20,0; 127,19</t>
+          <t>-18,94; 134,1</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>8,32; 201,25</t>
+          <t>13,85; 219,48</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 4,28</t>
+          <t>-0,44; 4,13</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 1,95</t>
+          <t>-2,21; 1,93</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 3,48</t>
+          <t>-0,97; 3,73</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 4,52</t>
+          <t>-0,01; 4,34</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 3,77</t>
+          <t>-0,6; 3,89</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 3,01</t>
+          <t>-1,56; 3,04</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,75</t>
+          <t>0,36; 3,6</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 2,17</t>
+          <t>-0,85; 2,16</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 2,61</t>
+          <t>-0,51; 2,63</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 75,07</t>
+          <t>-5,74; 74,89</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-27,57; 33,63</t>
+          <t>-28,16; 34,84</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-15,09; 59,23</t>
+          <t>-14,25; 67,78</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 84,32</t>
+          <t>-1,04; 80,77</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-12,48; 69,44</t>
+          <t>-8,51; 70,0</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-19,15; 57,8</t>
+          <t>-21,39; 54,3</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>5,37; 64,18</t>
+          <t>5,04; 63,16</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-12,59; 37,41</t>
+          <t>-12,05; 36,95</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 45,19</t>
+          <t>-6,67; 46,66</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/iP12_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/iP12_R-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,68</t>
+          <t>3,48</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,16</t>
+          <t>-2,19</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,51</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-9,5</t>
+          <t>-1,1</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-11,97</t>
+          <t>-2,89</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-14,42</t>
+          <t>-1,39</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-6,47</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-2,93</t>
+          <t>-2,56</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-7,55</t>
+          <t>-1,36</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-16,54; 5,61</t>
+          <t>-3,18; 9,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,23; 22,88</t>
+          <t>-7,4; 2,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-15,03; 10,22</t>
+          <t>-6,95; 4,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-27,52; 12,63</t>
+          <t>-5,95; 3,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-29,9; 8,51</t>
+          <t>-8,07; 1,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-32,64; 7,03</t>
+          <t>-6,44; 3,51</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-18,5; 3,95</t>
+          <t>-2,92; 5,16</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-15,55; 11,24</t>
+          <t>-6,17; 0,94</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-20,16; 4,3</t>
+          <t>-5,21; 2,35</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-55,94%</t>
+          <t>39,4%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>78,49%</t>
+          <t>-24,8%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-38,15%</t>
+          <t>-14,46%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-38,9%</t>
+          <t>-14,27%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-49,04%</t>
+          <t>-37,57%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-59,05%</t>
+          <t>-18,1%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-43,17%</t>
+          <t>12,97%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-19,52%</t>
+          <t>-31,08%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-50,35%</t>
+          <t>-16,55%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,81; 161,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,29; 52,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,91; 73,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-86,06; 121,05</t>
+          <t>-59,22; 72,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-92,7; 94,63</t>
+          <t>-75,67; 44,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 107,51</t>
+          <t>-64,03; 65,46</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-88,01; 55,64</t>
+          <t>-30,73; 80,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-76,52; 169,86</t>
+          <t>-58,17; 17,12</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 72,38</t>
+          <t>-50,59; 37,06</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,59</t>
+          <t>3,1</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-4,56</t>
+          <t>3,61</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,03</t>
+          <t>-1,62</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>-0,72</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,56</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-2,54</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>-0,19</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 4,41</t>
+          <t>-0,73; 7,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,75; -0,2</t>
+          <t>-0,42; 7,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,35; 4,55</t>
+          <t>-3,43; 5,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,07; 12,07</t>
+          <t>-5,73; 2,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 4,55</t>
+          <t>-4,74; 3,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 5,87</t>
+          <t>-5,02; 3,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 7,01</t>
+          <t>-2,41; 3,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 0,84</t>
+          <t>-1,69; 4,24</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 3,84</t>
+          <t>-2,88; 2,78</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-7,49%</t>
+          <t>50,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-57,58%</t>
+          <t>58,33%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-10,91%</t>
+          <t>15,12%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>104,51%</t>
+          <t>-20,46%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-5,39%</t>
+          <t>-9,11%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>21,11%</t>
+          <t>-14,89%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>37,05%</t>
+          <t>9,02%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-36,81%</t>
+          <t>19,1%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>-2,62%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-58,03; 82,49</t>
+          <t>-10,2; 189,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-86,02; 11,27</t>
+          <t>-7,07; 183,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-61,23; 82,53</t>
+          <t>-41,73; 111,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 363,34</t>
+          <t>-56,04; 51,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-67,07; 145,26</t>
+          <t>-49,71; 55,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-46,67; 171,35</t>
+          <t>-50,24; 54,64</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-15,85; 137,63</t>
+          <t>-28,26; 56,67</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-67,68; 21,98</t>
+          <t>-19,65; 72,14</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-43,4; 78,12</t>
+          <t>-33,25; 48,54</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,62</t>
+          <t>-3,15</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,72</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>-1,56</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,1</t>
+          <t>5,34</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,61</t>
+          <t>4,03</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>3,15</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>0,86</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 2,23</t>
+          <t>-8,07; 1,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 3,19</t>
+          <t>-6,29; 3,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 2,86</t>
+          <t>-7,72; 3,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 7,16</t>
+          <t>0,86; 10,38</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 8,11</t>
+          <t>-0,49; 9,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 5,0</t>
+          <t>-1,57; 8,56</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 3,44</t>
+          <t>-2,34; 4,49</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 4,38</t>
+          <t>-2,13; 4,66</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 2,56</t>
+          <t>-2,99; 4,57</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-20,46%</t>
+          <t>-34,22%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-9,11%</t>
+          <t>-15,16%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-14,27%</t>
+          <t>-16,9%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>50,0%</t>
+          <t>96,62%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>58,33%</t>
+          <t>72,93%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>14,06%</t>
+          <t>56,87%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>9,02%</t>
+          <t>17,2%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>19,1%</t>
+          <t>19,51%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-2,59%</t>
+          <t>11,84%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-54,22; 39,6</t>
+          <t>-66,94; 26,05</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-46,49; 58,54</t>
+          <t>-51,93; 55,97</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-51,46; 51,68</t>
+          <t>-59,67; 49,92</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-17,05; 161,17</t>
+          <t>9,15; 299,69</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-8,43; 172,36</t>
+          <t>-12,95; 241,7</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-36,6; 104,81</t>
+          <t>-22,08; 262,34</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-29,61; 58,33</t>
+          <t>-27,31; 76,94</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-16,03; 76,64</t>
+          <t>-22,61; 83,35</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-35,4; 45,35</t>
+          <t>-32,42; 78,96</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,34</t>
+          <t>4,12</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,03</t>
+          <t>3,67</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,1</t>
+          <t>2,87</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-3,15</t>
+          <t>5,08</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,4</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>4,3</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>4,6</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,37</t>
+          <t>3,65</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,54; 10,29</t>
+          <t>0,3; 7,52</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 8,32</t>
+          <t>-0,08; 7,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 8,73</t>
+          <t>-0,61; 6,62</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,71; 1,43</t>
+          <t>0,86; 9,45</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 3,41</t>
+          <t>-3,97; 2,73</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 4,62</t>
+          <t>0,29; 8,85</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 4,42</t>
+          <t>1,91; 7,42</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 4,84</t>
+          <t>-0,89; 4,11</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 5,22</t>
+          <t>0,8; 6,58</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>96,62%</t>
+          <t>126,13%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>72,93%</t>
+          <t>112,11%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>56,06%</t>
+          <t>87,78%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-34,22%</t>
+          <t>100,55%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-15,16%</t>
+          <t>-11,06%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-5,45%</t>
+          <t>85,19%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>17,2%</t>
+          <t>110,62%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>19,51%</t>
+          <t>37,57%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>18,83%</t>
+          <t>87,82%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 271,38</t>
+          <t>-5,4; 391,41</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-14,33; 230,94</t>
+          <t>-6,34; 418,56</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-23,13; 232,2</t>
+          <t>-20,61; 387,87</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-68,73; 25,13</t>
+          <t>8,58; 275,4</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-54,51; 53,36</t>
+          <t>-59,8; 87,01</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-51,17; 67,27</t>
+          <t>-3,55; 252,06</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-27,41; 76,0</t>
+          <t>29,45; 238,33</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-22,75; 85,06</t>
+          <t>-18,88; 129,11</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-22,73; 92,33</t>
+          <t>13,27; 201,64</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>5,08</t>
+          <t>2,17</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>4,24</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>4,12</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>3,67</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>2,8</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>4,6</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>1,56</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>3,54</t>
+          <t>0,95</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,08; 9,91</t>
+          <t>-0,06; 4,46</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 2,53</t>
+          <t>-0,88; 3,77</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,12; 9,05</t>
+          <t>-1,47; 3,31</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,52; 8,03</t>
+          <t>-0,27; 4,17</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,2; 7,59</t>
+          <t>-2,16; 1,97</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 6,66</t>
+          <t>-1,25; 3,56</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,99; 7,65</t>
+          <t>0,61; 3,88</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 4,07</t>
+          <t>-0,95; 2,3</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,79; 6,83</t>
+          <t>-0,59; 2,66</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>100,55%</t>
+          <t>33,72%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-11,06%</t>
+          <t>22,9%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>83,94%</t>
+          <t>10,28%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>126,13%</t>
+          <t>28,63%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>112,11%</t>
+          <t>-0,74%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>85,56%</t>
+          <t>18,28%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>110,62%</t>
+          <t>31,08%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>37,57%</t>
+          <t>10,64%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>85,06%</t>
+          <t>14,62%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>10,44; 267,79</t>
+          <t>-1,3; 80,85</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-59,0; 81,82</t>
+          <t>-11,39; 69,18</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 258,88</t>
+          <t>-19,53; 59,9</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>3,47; 398,54</t>
+          <t>-4,72; 71,89</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 396,99</t>
+          <t>-28,71; 34,06</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-21,45; 356,24</t>
+          <t>-16,31; 62,95</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>33,86; 251,54</t>
+          <t>7,62; 67,37</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-18,94; 134,1</t>
+          <t>-13,13; 41,49</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>13,85; 219,48</t>
+          <t>-8,02; 47,48</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>1,88</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-0,05</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>1,27</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>2,17</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>1,48</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>0,85</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>2,02</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>0,69</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>1,07</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-0,44; 4,13</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-2,21; 1,93</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-0,97; 3,73</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-0,01; 4,34</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-0,6; 3,89</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-1,56; 3,04</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>0,36; 3,6</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-0,85; 2,16</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-0,51; 2,63</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>28,63%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-0,74%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>19,43%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>33,72%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>22,9%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>13,15%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>31,08%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>10,64%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>16,5%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-5,74; 74,89</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-28,16; 34,84</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-14,25; 67,78</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-1,04; 80,77</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-8,51; 70,0</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-21,39; 54,3</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>5,04; 63,16</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-12,05; 36,95</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-6,67; 46,66</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
